--- a/medicine/Enfance/Anne_de_Preux/Anne_de_Preux.xlsx
+++ b/medicine/Enfance/Anne_de_Preux/Anne_de_Preux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne de Preux, née à Lausanne en 1942, est une autrice suisse de romans destinés à la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007 elle publie chez Calligram un premier roman pour la jeunesse, Le Seigneur des Andes, qui reçoit le prix Saint-Exupéry 2007 (valeurs jeunesse) de la francophonie [1]. En octobre 2010 elle publie un second roman, Naufrage en mer de Chine, |inspiré d'une expérience vécue par son beau-frère Max de Rham [2] et en 2012 La fille qui dansait sur la plage.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007 elle publie chez Calligram un premier roman pour la jeunesse, Le Seigneur des Andes, qui reçoit le prix Saint-Exupéry 2007 (valeurs jeunesse) de la francophonie . En octobre 2010 elle publie un second roman, Naufrage en mer de Chine, |inspiré d'une expérience vécue par son beau-frère Max de Rham  et en 2012 La fille qui dansait sur la plage.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Articles de presse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joëlle Fabre, « Écrivain par accident, Anne de Preux capture les jeunes lecteurs », 24 Heures, 23 novembre 2007
 Mélanie Noël, « Anne de Preux, le Seigneur des Andes : pour jeunesse captivée », La Tribune (Sherbrooke, Canada), 21 juillet 2007
